--- a/biology/Botanique/Coq_au_vin/Coq_au_vin.xlsx
+++ b/biology/Botanique/Coq_au_vin/Coq_au_vin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le coq au vin est un mets emblématique de la cuisine française, à base de découpes de coq marinées, puis braisées dans un vin rouge ou blanc, agrémentée d'un bouquet garni, de lardons, de champignons, de carottes et d'oignons.
@@ -513,10 +525,12 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un mythe légendaire, gallo-romain et auvergnat lié à l'histoire du coq au vin de chanturgue, raconte que le chef de la tribu des Arvernes en Auvergne, Vercingétorix, fait envoyer pour le narguer, un coq gaulois, en symbole de la combativité, de la vaillance et de l'orgueil des guerriers gaulois, à son assiégeant, Jules César, lors du siège de Gergovie[1] en 52 av. J.-C., durant la guerre des Gaules[2].
-Jules César le nargue à son tour en l'invitant à une cena (dîner du soir romain, dernier repas) où il lui fait servir son coq mijoté au vin[3]. Vercingétorix et ses trente mille guerriers arvernes infligent alors une défaite militaire historique écrasante, cuisante et humiliante à Jules César et aux trente mille hommes de ses légions romaines, avant le siège d'Alésia de l'été suivant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un mythe légendaire, gallo-romain et auvergnat lié à l'histoire du coq au vin de chanturgue, raconte que le chef de la tribu des Arvernes en Auvergne, Vercingétorix, fait envoyer pour le narguer, un coq gaulois, en symbole de la combativité, de la vaillance et de l'orgueil des guerriers gaulois, à son assiégeant, Jules César, lors du siège de Gergovie en 52 av. J.-C., durant la guerre des Gaules.
+Jules César le nargue à son tour en l'invitant à une cena (dîner du soir romain, dernier repas) où il lui fait servir son coq mijoté au vin. Vercingétorix et ses trente mille guerriers arvernes infligent alors une défaite militaire historique écrasante, cuisante et humiliante à Jules César et aux trente mille hommes de ses légions romaines, avant le siège d'Alésia de l'été suivant.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Ingrédients de base</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mets nécessite un coq (ou à défaut un poulet, ou une poularde) découpé en morceaux, des petits oignons, des gousses d'ail, des lardons, un verre à liqueur de marc, du vin rouge, un bouquet garni, des carottes, des champignons de Paris et du persil. Il est généralement servi avec des pommes vapeur ou des pâtes fraîches.
 </t>
@@ -576,7 +592,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Coq au riesling (cuisine alsacienne, vignoble d'Alsace)
